--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="210">
   <si>
     <t>TCID</t>
   </si>
@@ -622,6 +622,33 @@
   </si>
   <si>
     <t>Add New Facebook Message</t>
+  </si>
+  <si>
+    <t>Negative Test Cases for Add Story</t>
+  </si>
+  <si>
+    <t>Positive Test Cases for Add Story</t>
+  </si>
+  <si>
+    <t>GUI Test Cases for Add Post</t>
+  </si>
+  <si>
+    <t>GUI Test Cases for Add Story</t>
+  </si>
+  <si>
+    <t>Negative Test Cases for Add Post</t>
+  </si>
+  <si>
+    <t>Positive Test Cases for Add Post</t>
+  </si>
+  <si>
+    <t>Positive Test Cases for Add Messages</t>
+  </si>
+  <si>
+    <t>Negative Test Cases for Add Messages</t>
+  </si>
+  <si>
+    <t>GUI Test Cases for add Messages</t>
   </si>
 </sst>
 </file>
@@ -663,9 +690,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -948,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180:I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,59 +1028,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>400</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1066,16 +1084,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1095,16 +1113,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1124,16 +1142,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1153,16 +1171,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1182,16 +1200,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1211,16 +1229,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1240,16 +1258,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1269,16 +1287,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1298,16 +1316,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1327,16 +1345,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1356,16 +1374,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1385,16 +1403,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1414,16 +1432,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1443,16 +1461,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1471,46 +1489,29 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>416</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1530,16 +1531,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1559,16 +1560,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1588,16 +1589,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1617,16 +1618,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1646,16 +1647,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1675,16 +1676,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1704,16 +1705,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1733,16 +1734,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1762,16 +1763,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1780,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1791,25 +1792,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1820,19 +1821,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1849,16 +1850,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
         <v>43</v>
@@ -1878,16 +1879,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
         <v>43</v>
@@ -1907,16 +1908,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
@@ -1936,16 +1937,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
@@ -1965,16 +1966,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
         <v>43</v>
@@ -1994,16 +1995,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
@@ -2023,16 +2024,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -2052,16 +2053,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -2081,16 +2082,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -2110,16 +2111,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -2139,16 +2140,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -2168,25 +2169,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2197,25 +2198,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2226,16 +2227,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E45" t="s">
         <v>57</v>
@@ -2255,16 +2256,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
         <v>57</v>
@@ -2284,16 +2285,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>57</v>
@@ -2313,16 +2314,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
         <v>57</v>
@@ -2342,16 +2343,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
         <v>57</v>
@@ -2371,16 +2372,16 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
         <v>57</v>
@@ -2400,22 +2401,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2426,22 +2430,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2452,16 +2459,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2477,43 +2484,29 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>451</v>
-      </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
+      <c r="B54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -2530,16 +2523,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2556,16 +2549,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2581,40 +2574,49 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="A58">
+        <v>452</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2625,25 +2627,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2653,75 +2652,45 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>457</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>458</v>
-      </c>
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>14</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
         <v>75</v>
@@ -2741,16 +2710,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
         <v>75</v>
@@ -2770,16 +2739,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
         <v>75</v>
@@ -2799,16 +2768,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
         <v>75</v>
@@ -2828,16 +2797,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
         <v>75</v>
@@ -2857,16 +2826,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
         <v>75</v>
@@ -2886,16 +2855,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -2915,16 +2884,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
@@ -2944,16 +2913,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
@@ -2973,16 +2942,16 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
@@ -3002,16 +2971,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
         <v>75</v>
@@ -3031,16 +3000,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
         <v>75</v>
@@ -3060,16 +3029,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
         <v>75</v>
@@ -3089,16 +3058,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E76" t="s">
         <v>75</v>
@@ -3118,16 +3087,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
@@ -3147,16 +3116,16 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E78" t="s">
         <v>75</v>
@@ -3176,16 +3145,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
         <v>75</v>
@@ -3205,16 +3174,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E80" t="s">
         <v>75</v>
@@ -3234,16 +3203,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E81" t="s">
         <v>75</v>
@@ -3263,16 +3232,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
         <v>75</v>
@@ -3292,16 +3261,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
         <v>75</v>
@@ -3321,16 +3290,16 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
         <v>75</v>
@@ -3350,16 +3319,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E85" t="s">
         <v>75</v>
@@ -3368,7 +3337,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3378,55 +3347,38 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>482</v>
-      </c>
-      <c r="B86" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>103</v>
-      </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
+      <c r="B86" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3437,25 +3389,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3466,25 +3418,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3495,19 +3447,19 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -3524,16 +3476,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E91" t="s">
         <v>105</v>
@@ -3553,16 +3505,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>105</v>
@@ -3582,16 +3534,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>105</v>
@@ -3611,16 +3563,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>105</v>
@@ -3640,16 +3592,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
         <v>105</v>
@@ -3669,16 +3621,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
         <v>105</v>
@@ -3696,18 +3648,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E97" t="s">
         <v>105</v>
@@ -3725,18 +3677,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
         <v>105</v>
@@ -3754,163 +3706,163 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
+        <v>490</v>
+      </c>
+      <c r="B99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>103</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>491</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>103</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>492</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>493</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>103</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>494</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>495</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B104" t="s">
         <v>118</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C104" t="s">
         <v>118</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D104" t="s">
         <v>118</v>
-      </c>
-      <c r="E99" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>496</v>
-      </c>
-      <c r="B100" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" t="s">
-        <v>119</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s">
-        <v>120</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>497</v>
-      </c>
-      <c r="B101" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
-      <c r="D101" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101" t="s">
-        <v>119</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>498</v>
-      </c>
-      <c r="B102" t="s">
-        <v>123</v>
-      </c>
-      <c r="C102" t="s">
-        <v>123</v>
-      </c>
-      <c r="D102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" t="s">
-        <v>119</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s">
-        <v>120</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>499</v>
-      </c>
-      <c r="B103" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D103" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" t="s">
-        <v>119</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>500</v>
-      </c>
-      <c r="B104" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" t="s">
-        <v>125</v>
-      </c>
-      <c r="D104" t="s">
-        <v>125</v>
       </c>
       <c r="E104" t="s">
         <v>119</v>
@@ -3928,18 +3880,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E105" t="s">
         <v>119</v>
@@ -3957,18 +3909,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E106" t="s">
         <v>119</v>
@@ -3986,162 +3938,175 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
+        <v>498</v>
+      </c>
+      <c r="B107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" t="s">
+        <v>119</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>120</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>499</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" t="s">
+        <v>119</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>120</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>500</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>120</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>501</v>
+      </c>
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" t="s">
+        <v>119</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>120</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>502</v>
+      </c>
+      <c r="B111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" t="s">
+        <v>119</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>120</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B112" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>503</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B113" t="s">
         <v>128</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C113" t="s">
         <v>128</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D113" t="s">
         <v>128</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s">
-        <v>67</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>504</v>
-      </c>
-      <c r="B108" t="s">
-        <v>129</v>
-      </c>
-      <c r="C108" t="s">
-        <v>129</v>
-      </c>
-      <c r="D108" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s">
-        <v>67</v>
-      </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>505</v>
-      </c>
-      <c r="B110" t="s">
-        <v>130</v>
-      </c>
-      <c r="C110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" t="s">
-        <v>130</v>
-      </c>
-      <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s">
-        <v>67</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>506</v>
-      </c>
-      <c r="B111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" t="s">
-        <v>70</v>
-      </c>
-      <c r="D111" t="s">
-        <v>70</v>
-      </c>
-      <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s">
-        <v>67</v>
-      </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>507</v>
-      </c>
-      <c r="B112" t="s">
-        <v>71</v>
-      </c>
-      <c r="C112" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s">
-        <v>67</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>508</v>
-      </c>
-      <c r="B113" t="s">
-        <v>131</v>
-      </c>
-      <c r="C113" t="s">
-        <v>131</v>
-      </c>
-      <c r="D113" t="s">
-        <v>131</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
@@ -4156,18 +4121,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
@@ -4182,317 +4147,303 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>505</v>
+      </c>
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" t="s">
+        <v>130</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>67</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>506</v>
+      </c>
+      <c r="B119" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>67</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>507</v>
+      </c>
+      <c r="B120" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" t="s">
+        <v>71</v>
+      </c>
+      <c r="D120" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>67</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>508</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>67</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>509</v>
+      </c>
+      <c r="B122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>67</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>510</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B123" t="s">
         <v>133</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C123" t="s">
         <v>133</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D123" t="s">
         <v>133</v>
       </c>
-      <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>511</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B124" t="s">
         <v>134</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C124" t="s">
         <v>134</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D124" t="s">
         <v>134</v>
       </c>
-      <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>512</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B125" t="s">
         <v>135</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C125" t="s">
         <v>135</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D125" t="s">
         <v>135</v>
       </c>
-      <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>513</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B126" t="s">
         <v>136</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C126" t="s">
         <v>136</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D126" t="s">
         <v>136</v>
       </c>
-      <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>514</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B127" t="s">
         <v>137</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C127" t="s">
         <v>137</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D127" t="s">
         <v>137</v>
       </c>
-      <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>515</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B128" t="s">
         <v>138</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C128" t="s">
         <v>138</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D128" t="s">
         <v>138</v>
-      </c>
-      <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>516</v>
-      </c>
-      <c r="B121" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121" t="s">
-        <v>139</v>
-      </c>
-      <c r="D121" t="s">
-        <v>139</v>
-      </c>
-      <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>517</v>
-      </c>
-      <c r="B122" t="s">
-        <v>140</v>
-      </c>
-      <c r="C122" t="s">
-        <v>140</v>
-      </c>
-      <c r="D122" t="s">
-        <v>140</v>
-      </c>
-      <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>518</v>
-      </c>
-      <c r="B123" t="s">
-        <v>141</v>
-      </c>
-      <c r="C123" t="s">
-        <v>141</v>
-      </c>
-      <c r="D123" t="s">
-        <v>141</v>
-      </c>
-      <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>519</v>
-      </c>
-      <c r="B124" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" t="s">
-        <v>142</v>
-      </c>
-      <c r="D124" t="s">
-        <v>142</v>
-      </c>
-      <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>520</v>
-      </c>
-      <c r="B125" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125" t="s">
-        <v>143</v>
-      </c>
-      <c r="D125" t="s">
-        <v>143</v>
-      </c>
-      <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>521</v>
-      </c>
-      <c r="B126" t="s">
-        <v>144</v>
-      </c>
-      <c r="C126" t="s">
-        <v>144</v>
-      </c>
-      <c r="D126" t="s">
-        <v>144</v>
-      </c>
-      <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>522</v>
-      </c>
-      <c r="B127" t="s">
-        <v>145</v>
-      </c>
-      <c r="C127" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" t="s">
-        <v>145</v>
-      </c>
-      <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>523</v>
-      </c>
-      <c r="B128" t="s">
-        <v>146</v>
-      </c>
-      <c r="C128" t="s">
-        <v>146</v>
-      </c>
-      <c r="D128" t="s">
-        <v>146</v>
       </c>
       <c r="F128" t="s">
         <v>11</v>
@@ -4506,16 +4457,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F129" t="s">
         <v>11</v>
@@ -4529,16 +4480,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B130" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
@@ -4552,16 +4503,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F131" t="s">
         <v>11</v>
@@ -4575,16 +4526,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
@@ -4598,16 +4549,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C133" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
@@ -4621,16 +4572,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B134" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F134" t="s">
         <v>11</v>
@@ -4644,16 +4595,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C135" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
@@ -4667,16 +4618,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D136" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
@@ -4690,16 +4641,16 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B137" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C137" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F137" t="s">
         <v>11</v>
@@ -4713,16 +4664,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C138" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F138" t="s">
         <v>11</v>
@@ -4736,16 +4687,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C139" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
@@ -4759,16 +4710,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F140" t="s">
         <v>11</v>
@@ -4782,16 +4733,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F141" t="s">
         <v>11</v>
@@ -4805,16 +4756,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B142" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
@@ -4828,16 +4779,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
@@ -4851,16 +4802,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C144" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -4874,16 +4825,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C145" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F145" t="s">
         <v>11</v>
@@ -4897,16 +4848,16 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C146" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F146" t="s">
         <v>11</v>
@@ -4920,16 +4871,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C147" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
@@ -4943,16 +4894,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C148" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
@@ -4966,16 +4917,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B149" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F149" t="s">
         <v>11</v>
@@ -4989,16 +4940,16 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C150" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
@@ -5012,16 +4963,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B151" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C151" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
@@ -5035,16 +4986,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B152" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F152" t="s">
         <v>11</v>
@@ -5058,16 +5009,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C153" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
@@ -5081,16 +5032,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B154" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C154" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
@@ -5104,16 +5055,16 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B155" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C155" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
@@ -5127,16 +5078,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C156" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
@@ -5150,16 +5101,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B157" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C157" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
@@ -5172,40 +5123,29 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>553</v>
-      </c>
-      <c r="B158" t="s">
-        <v>176</v>
-      </c>
-      <c r="C158" t="s">
-        <v>176</v>
-      </c>
-      <c r="D158" t="s">
-        <v>176</v>
-      </c>
-      <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" t="s">
-        <v>13</v>
-      </c>
-      <c r="I158" t="s">
-        <v>14</v>
-      </c>
+      <c r="B158" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C159" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D159" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -5219,16 +5159,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B160" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C160" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D160" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
@@ -5242,16 +5182,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B161" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C161" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D161" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
@@ -5265,16 +5205,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B162" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D162" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
@@ -5288,16 +5228,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B163" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D163" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
@@ -5311,16 +5251,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B164" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C164" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D164" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F164" t="s">
         <v>11</v>
@@ -5334,16 +5274,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B165" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D165" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F165" t="s">
         <v>11</v>
@@ -5357,16 +5297,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B166" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D166" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F166" t="s">
         <v>11</v>
@@ -5380,16 +5320,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B167" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D167" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F167" t="s">
         <v>11</v>
@@ -5403,16 +5343,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B168" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C168" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D168" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F168" t="s">
         <v>11</v>
@@ -5426,16 +5366,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B169" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D169" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F169" t="s">
         <v>11</v>
@@ -5449,16 +5389,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B170" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D170" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
@@ -5472,16 +5412,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B171" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D171" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F171" t="s">
         <v>11</v>
@@ -5495,16 +5435,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B172" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D172" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F172" t="s">
         <v>11</v>
@@ -5518,16 +5458,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B173" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D173" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F173" t="s">
         <v>11</v>
@@ -5541,16 +5481,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C174" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D174" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
@@ -5564,16 +5504,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B175" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D175" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
@@ -5587,16 +5527,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="C176" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="F176" t="s">
         <v>11</v>
@@ -5610,16 +5550,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B177" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="C177" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="D177" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="F177" t="s">
         <v>11</v>
@@ -5633,16 +5573,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C178" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D178" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F178" t="s">
         <v>11</v>
@@ -5656,16 +5596,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C179" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D179" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F179" t="s">
         <v>11</v>
@@ -5678,56 +5618,275 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>575</v>
-      </c>
-      <c r="B180" t="s">
-        <v>196</v>
-      </c>
-      <c r="C180" t="s">
-        <v>196</v>
-      </c>
-      <c r="D180" t="s">
-        <v>196</v>
-      </c>
-      <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" t="s">
-        <v>14</v>
-      </c>
+      <c r="B180" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
+        <v>566</v>
+      </c>
+      <c r="B181" t="s">
+        <v>189</v>
+      </c>
+      <c r="C181" t="s">
+        <v>189</v>
+      </c>
+      <c r="D181" t="s">
+        <v>189</v>
+      </c>
+      <c r="F181" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>567</v>
+      </c>
+      <c r="B182" t="s">
+        <v>190</v>
+      </c>
+      <c r="C182" t="s">
+        <v>190</v>
+      </c>
+      <c r="D182" t="s">
+        <v>190</v>
+      </c>
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>568</v>
+      </c>
+      <c r="B183" t="s">
+        <v>191</v>
+      </c>
+      <c r="C183" t="s">
+        <v>191</v>
+      </c>
+      <c r="D183" t="s">
+        <v>191</v>
+      </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>569</v>
+      </c>
+      <c r="B184" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" t="s">
+        <v>192</v>
+      </c>
+      <c r="D184" t="s">
+        <v>192</v>
+      </c>
+      <c r="F184" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>570</v>
+      </c>
+      <c r="B185" t="s">
+        <v>193</v>
+      </c>
+      <c r="C185" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185" t="s">
+        <v>193</v>
+      </c>
+      <c r="F185" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>571</v>
+      </c>
+      <c r="B186" t="s">
+        <v>70</v>
+      </c>
+      <c r="C186" t="s">
+        <v>70</v>
+      </c>
+      <c r="D186" t="s">
+        <v>70</v>
+      </c>
+      <c r="F186" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>572</v>
+      </c>
+      <c r="B187" t="s">
+        <v>71</v>
+      </c>
+      <c r="C187" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" t="s">
+        <v>71</v>
+      </c>
+      <c r="F187" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>573</v>
+      </c>
+      <c r="B188" t="s">
+        <v>194</v>
+      </c>
+      <c r="C188" t="s">
+        <v>194</v>
+      </c>
+      <c r="D188" t="s">
+        <v>194</v>
+      </c>
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>574</v>
+      </c>
+      <c r="B189" t="s">
+        <v>195</v>
+      </c>
+      <c r="C189" t="s">
+        <v>195</v>
+      </c>
+      <c r="D189" t="s">
+        <v>195</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>575</v>
+      </c>
+      <c r="B190" t="s">
+        <v>196</v>
+      </c>
+      <c r="C190" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190" t="s">
+        <v>196</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>576</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B191" t="s">
         <v>197</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C191" t="s">
         <v>197</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D191" t="s">
         <v>197</v>
       </c>
-      <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="H181" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" t="s">
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A115:J115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
